--- a/plantilla-para-analisis-comprension-de-textos-4-dimensiones-3-indicadores-12-preguntas-indices-0-1.xlsx
+++ b/plantilla-para-analisis-comprension-de-textos-4-dimensiones-3-indicadores-12-preguntas-indices-0-1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Datos/sucerman/Documents/github/seminario-analisis-informacion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desarrollo\Documents\GitHub\seminario-analisis-informacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15435" tabRatio="500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pretest" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Comparación de Medias" sheetId="4" r:id="rId5"/>
     <sheet name="T-student" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
   <si>
     <t>TOTAL PRUEBA</t>
   </si>
@@ -291,12 +291,27 @@
   <si>
     <t>% Pregunta</t>
   </si>
+  <si>
+    <t>DIMENSIÓN-1</t>
+  </si>
+  <si>
+    <t>DIMENSIÓN-2</t>
+  </si>
+  <si>
+    <t>DIMENSIÓN-3</t>
+  </si>
+  <si>
+    <t>Total Prueba</t>
+  </si>
+  <si>
+    <t>DIMENSIÓN-4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -349,6 +364,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -394,7 +422,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -474,61 +502,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -626,36 +605,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -707,6 +664,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,9 +686,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -778,7 +738,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -804,7 +763,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -906,7 +865,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -918,7 +877,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -964,14 +922,19 @@
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.433333333333333</c:v>
+                  <c:v>0.43333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.633333333333333</c:v>
+                  <c:v>0.6333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-747C-46C5-9B3F-86DCC9CEE80D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1025,7 +988,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1037,7 +1000,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1083,7 +1045,7 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.766666666666667</c:v>
+                  <c:v>0.76666666666666672</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.8</c:v>
@@ -1091,6 +1053,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-747C-46C5-9B3F-86DCC9CEE80D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1141,7 +1108,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2019079696"/>
@@ -1198,7 +1165,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1224,7 +1190,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1256,7 +1222,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2019083136"/>
@@ -1298,7 +1264,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -1336,7 +1302,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1348,9 +1314,9 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1400,7 +1366,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1426,7 +1391,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1516,7 +1481,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1526,9 +1491,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1571,10 +1535,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.233333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.466666666666667</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.3</c:v>
@@ -1582,7 +1546,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0F1E-4E11-B5BE-1C22936318BB}"/>
             </c:ext>
@@ -1643,7 +1607,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2038618960"/>
@@ -1702,7 +1666,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2040666144"/>
@@ -1743,7 +1707,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1755,9 +1719,9 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1799,7 +1763,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1825,7 +1788,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1915,7 +1878,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1925,9 +1888,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1970,10 +1932,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.6</c:v>
+                  <c:v>0.13333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3</c:v>
+                  <c:v>0.76666666666666672</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.1</c:v>
@@ -1981,7 +1943,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6DAC-4302-B9E5-0BA080AC2532}"/>
             </c:ext>
@@ -2042,7 +2004,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2107536944"/>
@@ -2101,7 +2063,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2019129584"/>
@@ -2142,7 +2104,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2154,9 +2116,9 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2193,7 +2155,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2219,7 +2180,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2309,7 +2270,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2319,9 +2280,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2364,10 +2324,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.3</c:v>
@@ -2375,7 +2335,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B256-4BAF-9EDF-C26B937B25BA}"/>
             </c:ext>
@@ -2436,7 +2396,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2043532592"/>
@@ -2495,7 +2455,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2043513888"/>
@@ -2536,7 +2496,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2548,9 +2508,9 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2617,7 +2577,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2719,7 +2679,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2729,7 +2689,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2773,18 +2733,18 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0666666666666667</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.733333333333333</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.13333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-075E-4831-8285-A95B3D61C5A5}"/>
             </c:ext>
@@ -2839,7 +2799,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2043553376"/>
@@ -2898,7 +2858,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2043549808"/>
@@ -2939,7 +2899,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2951,9 +2911,9 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3015,7 +2975,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3117,7 +3077,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3127,7 +3087,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -3171,18 +3131,18 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-63FB-4A9E-B427-22DF6AB4ACBB}"/>
             </c:ext>
@@ -3237,7 +3197,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2044843392"/>
@@ -3296,7 +3256,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2044056976"/>
@@ -3337,7 +3297,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3349,9 +3309,9 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3393,7 +3353,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3419,7 +3378,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3521,7 +3480,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3533,7 +3492,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3576,10 +3534,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.466666666666667</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.333333333333333</c:v>
+                  <c:v>0.73333333333333328</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.2</c:v>
@@ -3587,6 +3545,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D5DC-407D-9332-212CD712BC8A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3640,7 +3603,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3652,7 +3615,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3695,10 +3657,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.1</c:v>
+                  <c:v>3.3333333333333333E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4</c:v>
+                  <c:v>0.46666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5</c:v>
@@ -3706,6 +3668,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D5DC-407D-9332-212CD712BC8A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3756,7 +3723,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2086372144"/>
@@ -3813,7 +3780,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3839,7 +3805,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3871,7 +3837,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2086359856"/>
@@ -3913,7 +3879,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -3951,7 +3917,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3963,9 +3929,9 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4007,7 +3973,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4033,7 +3998,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4132,7 +4097,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4144,7 +4109,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4187,17 +4151,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.333333333333333</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.533333333333333</c:v>
+                  <c:v>0.76666666666666672</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.133333333333333</c:v>
+                  <c:v>0.13333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1832-4DF9-B463-215320E153B0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4251,7 +4220,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4263,7 +4232,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4306,17 +4274,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0666666666666667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.466666666666667</c:v>
+                  <c:v>0.53333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.466666666666667</c:v>
+                  <c:v>0.46666666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1832-4DF9-B463-215320E153B0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4367,7 +4340,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2019011024"/>
@@ -4424,7 +4397,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4450,7 +4422,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4482,7 +4454,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2019014464"/>
@@ -4524,7 +4496,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -4562,7 +4534,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4574,9 +4546,9 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4618,7 +4590,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4644,7 +4615,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4746,7 +4717,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4758,7 +4729,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4801,17 +4771,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.6</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.266666666666667</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.133333333333333</c:v>
+                  <c:v>0.13333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E322-41A3-B31C-BD3DFD14D51E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4865,7 +4840,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4877,7 +4852,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4920,10 +4894,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.233333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.466666666666667</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.3</c:v>
@@ -4931,6 +4905,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E322-41A3-B31C-BD3DFD14D51E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4981,7 +4960,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2019654464"/>
@@ -5038,7 +5017,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5064,7 +5042,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5096,7 +5074,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2039134672"/>
@@ -5138,7 +5116,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -5176,7 +5154,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5188,9 +5166,9 @@
 </file>
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5232,7 +5210,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5258,7 +5235,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5360,7 +5337,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5372,7 +5349,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5415,10 +5391,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.6</c:v>
+                  <c:v>0.13333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3</c:v>
+                  <c:v>0.76666666666666672</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.1</c:v>
@@ -5426,6 +5402,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E72A-47F6-8421-375B6648E7B1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5479,7 +5460,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5491,7 +5472,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5534,10 +5514,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.3</c:v>
@@ -5545,6 +5525,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E72A-47F6-8421-375B6648E7B1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5595,7 +5580,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2019617104"/>
@@ -5652,7 +5637,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5678,7 +5662,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5710,7 +5694,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2019773040"/>
@@ -5752,7 +5736,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -5790,7 +5774,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5802,9 +5786,9 @@
 </file>
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5871,7 +5855,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5973,7 +5957,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6027,17 +6011,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0666666666666667</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.733333333333333</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.13333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-61F8-4E75-9E14-FB4E6C51A743}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6091,7 +6080,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6145,17 +6134,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-61F8-4E75-9E14-FB4E6C51A743}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6206,7 +6200,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2056138256"/>
@@ -6288,7 +6282,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6320,7 +6314,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2056135040"/>
@@ -6362,7 +6356,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -6400,7 +6394,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6412,9 +6406,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6460,7 +6454,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6486,7 +6479,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6588,7 +6581,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6600,7 +6593,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6643,17 +6635,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.533333333333333</c:v>
+                  <c:v>0.53333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.566666666666667</c:v>
+                  <c:v>0.56666666666666665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D385-4909-80D5-5FCBF77D8536}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6707,7 +6704,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6719,7 +6716,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6762,17 +6758,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.766666666666667</c:v>
+                  <c:v>0.76666666666666672</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.766666666666667</c:v>
+                  <c:v>0.76666666666666672</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.866666666666667</c:v>
+                  <c:v>0.8666666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D385-4909-80D5-5FCBF77D8536}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6823,7 +6824,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2019058096"/>
@@ -6880,7 +6881,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6906,7 +6906,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6938,7 +6938,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2019061536"/>
@@ -6980,7 +6980,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -7018,7 +7018,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7030,9 +7030,9 @@
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7099,7 +7099,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7166,94 +7166,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7265,100 +7265,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-68B0-4F8D-91BB-1E42AA626C01}"/>
             </c:ext>
@@ -7421,94 +7421,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7520,100 +7520,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-68B0-4F8D-91BB-1E42AA626C01}"/>
             </c:ext>
@@ -7685,7 +7685,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2043335488"/>
@@ -7747,7 +7747,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2020867936"/>
@@ -7789,7 +7789,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7819,7 +7819,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7831,9 +7831,9 @@
 </file>
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7900,7 +7900,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7967,94 +7967,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8066,100 +8066,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DA49-4B85-AC7B-A22D88FD729B}"/>
             </c:ext>
@@ -8222,94 +8222,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8321,100 +8321,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-DA49-4B85-AC7B-A22D88FD729B}"/>
             </c:ext>
@@ -8486,7 +8486,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2043203520"/>
@@ -8548,7 +8548,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2043206656"/>
@@ -8590,7 +8590,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8620,7 +8620,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8632,9 +8632,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8676,7 +8676,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8702,7 +8701,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8804,7 +8803,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -8816,7 +8815,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8859,7 +8857,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.333333333333333</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.5</c:v>
@@ -8870,6 +8868,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A56-43A6-9863-0E44388AEC79}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -8923,7 +8926,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -8935,7 +8938,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8981,7 +8983,7 @@
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.766666666666667</c:v>
+                  <c:v>0.76666666666666672</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.7</c:v>
@@ -8989,6 +8991,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8A56-43A6-9863-0E44388AEC79}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -9039,7 +9046,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2058830992"/>
@@ -9096,7 +9103,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9122,7 +9128,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9154,7 +9160,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2041897744"/>
@@ -9196,7 +9202,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -9234,7 +9240,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9246,9 +9252,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9315,7 +9321,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9417,7 +9423,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9471,17 +9477,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.466666666666667</c:v>
+                  <c:v>0.46666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.366666666666667</c:v>
+                  <c:v>0.36666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.533333333333333</c:v>
+                  <c:v>0.53333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D097-41C2-A6CD-1F66C5D149E3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -9535,7 +9546,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9589,17 +9600,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.633333333333333</c:v>
+                  <c:v>0.6333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.733333333333333</c:v>
+                  <c:v>0.73333333333333328</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.733333333333333</c:v>
+                  <c:v>0.73333333333333328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D097-41C2-A6CD-1F66C5D149E3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -9650,7 +9666,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2043450352"/>
@@ -9732,7 +9748,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9764,7 +9780,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2043445904"/>
@@ -9806,7 +9822,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -9844,7 +9860,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9856,9 +9872,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9908,7 +9924,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9934,7 +9949,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10000,55 +10015,46 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-0DB3-4AFC-AFA6-41690D9924F4}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-0DB3-4AFC-AFA6-41690D9924F4}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-0DB3-4AFC-AFA6-41690D9924F4}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -10078,7 +10084,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -10087,7 +10093,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -10131,10 +10137,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.466666666666667</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.333333333333333</c:v>
+                  <c:v>0.73333333333333328</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.2</c:v>
@@ -10142,7 +10148,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-0DB3-4AFC-AFA6-41690D9924F4}"/>
             </c:ext>
@@ -10203,7 +10209,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2038928096"/>
@@ -10262,7 +10268,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2041142592"/>
@@ -10303,7 +10309,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10315,9 +10321,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10359,7 +10365,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10385,7 +10390,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10475,7 +10480,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -10485,9 +10490,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10530,10 +10534,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.1</c:v>
+                  <c:v>3.3333333333333333E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4</c:v>
+                  <c:v>0.46666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5</c:v>
@@ -10541,7 +10545,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B54E-48F3-B911-4872FEDC1494}"/>
             </c:ext>
@@ -10602,7 +10606,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2044883136"/>
@@ -10661,7 +10665,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2043840656"/>
@@ -10702,7 +10706,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10714,9 +10718,9 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10762,7 +10766,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10788,7 +10791,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10878,7 +10881,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -10888,9 +10891,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10933,18 +10935,18 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.333333333333333</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.533333333333333</c:v>
+                  <c:v>0.76666666666666672</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.133333333333333</c:v>
+                  <c:v>0.13333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2BFE-4470-9C6B-2D4CB1998835}"/>
             </c:ext>
@@ -11005,7 +11007,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2044006016"/>
@@ -11064,7 +11066,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2104714768"/>
@@ -11105,7 +11107,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11117,9 +11119,9 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11169,7 +11171,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11195,7 +11196,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11285,7 +11286,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -11295,9 +11296,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11340,18 +11340,18 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0666666666666667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.466666666666667</c:v>
+                  <c:v>0.53333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.466666666666667</c:v>
+                  <c:v>0.46666666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9E1B-49D9-A5AB-7E7CA6521BB1}"/>
             </c:ext>
@@ -11412,7 +11412,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2045659968"/>
@@ -11471,7 +11471,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2044928032"/>
@@ -11512,7 +11512,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11524,9 +11524,9 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-CO"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11568,7 +11568,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11594,7 +11593,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11684,7 +11683,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES_tradnl"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -11694,9 +11693,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11739,18 +11737,18 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.6</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.266666666666667</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.133333333333333</c:v>
+                  <c:v>0.13333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CA2B-4A83-B11C-8EDE93B90F80}"/>
             </c:ext>
@@ -11811,7 +11809,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2019942944"/>
@@ -11870,7 +11868,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2038542848"/>
@@ -11911,7 +11909,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -23269,7 +23267,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -23299,7 +23303,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -23329,7 +23339,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -23359,7 +23375,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -23397,7 +23419,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23433,7 +23455,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23469,7 +23491,7 @@
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23505,7 +23527,7 @@
         <xdr:cNvPr id="5" name="Gráfico 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23541,7 +23563,7 @@
         <xdr:cNvPr id="6" name="Gráfico 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23577,7 +23599,7 @@
         <xdr:cNvPr id="7" name="Gráfico 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23613,7 +23635,7 @@
         <xdr:cNvPr id="8" name="Gráfico 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23649,7 +23671,7 @@
         <xdr:cNvPr id="9" name="Gráfico 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23685,7 +23707,7 @@
         <xdr:cNvPr id="10" name="Gráfico 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C60FEBB-1128-40F0-80C3-0A870DCF4D6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23721,7 +23743,7 @@
         <xdr:cNvPr id="11" name="Gráfico 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{811EC65F-EA02-4407-B17A-A26F938CD13D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23754,7 +23776,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Gráfico 11"/>
+        <xdr:cNvPr id="12" name="Gráfico 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -23784,7 +23812,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Gráfico 12"/>
+        <xdr:cNvPr id="13" name="Gráfico 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -23814,7 +23848,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Gráfico 13"/>
+        <xdr:cNvPr id="14" name="Gráfico 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -23844,7 +23884,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Gráfico 14"/>
+        <xdr:cNvPr id="15" name="Gráfico 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -23874,7 +23920,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="Gráfico 15"/>
+        <xdr:cNvPr id="16" name="Gráfico 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -23896,23 +23948,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>650875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23937,23 +23989,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24236,77 +24288,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R1:R1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.875" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.875" style="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="11.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="11.875" style="21" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="12.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="12.875" style="21" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.625" style="21" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10" style="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.83203125" style="21"/>
+    <col min="24" max="24" width="10.875" style="21"/>
     <col min="25" max="25" width="13.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.875" style="21" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="6.5" style="21" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="4.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="10.83203125" style="21"/>
+    <col min="29" max="29" width="5.375" style="21" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="10.875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="20"/>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="63" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="64" t="s">
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="66" t="s">
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="W1" s="65" t="s">
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="61" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="46" t="s">
         <v>47</v>
@@ -24352,10 +24404,10 @@
       </c>
       <c r="T2" s="22"/>
       <c r="U2" s="22"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
@@ -24419,8 +24471,8 @@
       <c r="U3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
       <c r="Y3" s="20" t="s">
         <v>11</v>
       </c>
@@ -24437,7 +24489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>1</v>
       </c>
@@ -24455,7 +24507,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="27" t="str">
-        <f>IF(AND(E4&gt;=0,E4&lt;=1),"bajo",IF(AND(E4&gt;1,E4&lt;=2),"medio",IF(AND(E4&gt;2,E4&lt;=3),"alto")))</f>
+        <f>IF(AND(E4&gt;=0,E4&lt;1),"bajo",IF(AND(E4&gt;=1,E4&lt;=2),"medio",IF(AND(E4&gt;2,E4&lt;=3),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="G4" s="26">
@@ -24472,7 +24524,7 @@
         <v>3</v>
       </c>
       <c r="K4" s="52" t="str">
-        <f>IF(AND(J4&gt;=0,J4&lt;=1),"bajo",IF(AND(J4&gt;1,J4&lt;=2),"medio",IF(AND(J4&gt;2,J4&lt;=3),"alto")))</f>
+        <f>IF(AND(J4&gt;=0,J4&lt;1),"bajo",IF(AND(J4&gt;=1,J4&lt;=2),"medio",IF(AND(J4&gt;2,J4&lt;=3),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="L4" s="26">
@@ -24489,7 +24541,7 @@
         <v>3</v>
       </c>
       <c r="P4" s="29" t="str">
-        <f>IF(AND(O4&gt;=0,O4&lt;=1),"bajo",IF(AND(O4&gt;1,O4&lt;=2),"medio",IF(AND(O4&gt;2,O4&lt;=3),"alto")))</f>
+        <f>IF(AND(O4&gt;=0,O4&lt;1),"bajo",IF(AND(O4&gt;=1,O4&lt;=2),"medio",IF(AND(O4&gt;2,O4&lt;=3),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="Q4" s="26">
@@ -24506,15 +24558,15 @@
         <v>3</v>
       </c>
       <c r="U4" s="27" t="str">
-        <f>IF(AND(T4&gt;=0,T4&lt;=1),"bajo",IF(AND(T4&gt;1,T4&lt;=2),"medio",IF(AND(T4&gt;2,T4&lt;=3),"alto")))</f>
+        <f>IF(AND(T4&gt;=0,T4&lt;1),"bajo",IF(AND(T4&gt;=1,T4&lt;=2),"medio",IF(AND(T4&gt;2,T4&lt;=3),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="V4" s="30">
-        <f t="shared" ref="V4:V33" si="4">E4+J4+O4+T4</f>
+        <f t="shared" ref="V4:V34" si="4">E4+J4+O4+T4</f>
         <v>12</v>
       </c>
       <c r="W4" s="30" t="str">
-        <f>IF(AND(V4&gt;=0,V4&lt;4),"bajo",IF(AND(V4&gt;=4,V4&lt;8),"medio",IF(AND(V4&gt;=8,V4&lt;=12),"alto")))</f>
+        <f>IF(AND(V4&gt;=0,V4&lt;4),"bajo",IF(AND(V4&gt;=4,V4&lt;=8),"medio",IF(AND(V4&gt;8,V4&lt;=12),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="Y4" s="27" t="s">
@@ -24522,11 +24574,11 @@
       </c>
       <c r="Z4" s="27">
         <f>COUNTIF(F4:F33,"bajo")</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AA4" s="27">
         <f>COUNTIF(F4:F33,"medio")</f>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AB4" s="27">
         <f>COUNTIF(F4:F33,"alto")</f>
@@ -24537,7 +24589,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>2</v>
       </c>
@@ -24555,8 +24607,8 @@
         <v>1</v>
       </c>
       <c r="F5" s="27" t="str">
-        <f t="shared" ref="F5:F33" si="5">IF(AND(E5&gt;=0,E5&lt;=1),"bajo",IF(AND(E5&gt;1,E5&lt;=2),"medio",IF(AND(E5&gt;2,E5&lt;=3),"alto")))</f>
-        <v>bajo</v>
+        <f t="shared" ref="F5:F33" si="5">IF(AND(E5&gt;=0,E5&lt;1),"bajo",IF(AND(E5&gt;=1,E5&lt;=2),"medio",IF(AND(E5&gt;2,E5&lt;=3),"alto")))</f>
+        <v>medio</v>
       </c>
       <c r="G5" s="26">
         <v>0</v>
@@ -24572,8 +24624,8 @@
         <v>1</v>
       </c>
       <c r="K5" s="52" t="str">
-        <f t="shared" ref="K5:K33" si="6">IF(AND(J5&gt;=0,J5&lt;=1),"bajo",IF(AND(J5&gt;1,J5&lt;=2),"medio",IF(AND(J5&gt;2,J5&lt;=3),"alto")))</f>
-        <v>bajo</v>
+        <f t="shared" ref="K5:K33" si="6">IF(AND(J5&gt;=0,J5&lt;1),"bajo",IF(AND(J5&gt;=1,J5&lt;=2),"medio",IF(AND(J5&gt;2,J5&lt;=3),"alto")))</f>
+        <v>medio</v>
       </c>
       <c r="L5" s="26">
         <v>0</v>
@@ -24589,7 +24641,7 @@
         <v>2</v>
       </c>
       <c r="P5" s="29" t="str">
-        <f t="shared" ref="P5:P33" si="7">IF(AND(O5&gt;=0,O5&lt;=1),"bajo",IF(AND(O5&gt;1,O5&lt;=2),"medio",IF(AND(O5&gt;2,O5&lt;=3),"alto")))</f>
+        <f t="shared" ref="P5:P33" si="7">IF(AND(O5&gt;=0,O5&lt;1),"bajo",IF(AND(O5&gt;=1,O5&lt;=2),"medio",IF(AND(O5&gt;2,O5&lt;=3),"alto")))</f>
         <v>medio</v>
       </c>
       <c r="Q5" s="26">
@@ -24606,15 +24658,15 @@
         <v>1</v>
       </c>
       <c r="U5" s="27" t="str">
-        <f t="shared" ref="U5:U33" si="8">IF(AND(T5&gt;=0,T5&lt;=1),"bajo",IF(AND(T5&gt;1,T5&lt;=2),"medio",IF(AND(T5&gt;2,T5&lt;=3),"alto")))</f>
-        <v>bajo</v>
+        <f t="shared" ref="U5:U33" si="8">IF(AND(T5&gt;=0,T5&lt;1),"bajo",IF(AND(T5&gt;=1,T5&lt;=2),"medio",IF(AND(T5&gt;2,T5&lt;=3),"alto")))</f>
+        <v>medio</v>
       </c>
       <c r="V5" s="30">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="W5" s="30" t="str">
-        <f t="shared" ref="W5:W33" si="9">IF(AND(V5&gt;=0,V5&lt;4),"bajo",IF(AND(V5&gt;=4,V5&lt;8),"medio",IF(AND(V5&gt;=8,V5&lt;=12),"alto")))</f>
+        <f t="shared" ref="W5:W33" si="9">IF(AND(V5&gt;=0,V5&lt;4),"bajo",IF(AND(V5&gt;=4,V5&lt;=8),"medio",IF(AND(V5&gt;8,V5&lt;=12),"alto")))</f>
         <v>medio</v>
       </c>
       <c r="Y5" s="28" t="s">
@@ -24622,11 +24674,11 @@
       </c>
       <c r="Z5" s="28">
         <f>COUNTIF(K4:K33,"bajo")</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AA5" s="28">
         <f>COUNTIF(K4:K33,"medio")</f>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AB5" s="28">
         <f>COUNTIF(K4:K33,"alto")</f>
@@ -24637,7 +24689,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>3</v>
       </c>
@@ -24690,7 +24742,7 @@
       </c>
       <c r="P6" s="29" t="str">
         <f t="shared" si="7"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="Q6" s="26">
         <v>1</v>
@@ -24722,11 +24774,11 @@
       </c>
       <c r="Z6" s="29">
         <f>COUNTIF(P4:P33,"bajo")</f>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="AA6" s="29">
         <f>COUNTIF(P4:P33,"medio")</f>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AB6" s="29">
         <f>COUNTIF(P4:P33,"alto")</f>
@@ -24737,7 +24789,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>4</v>
       </c>
@@ -24822,11 +24874,11 @@
       </c>
       <c r="Z7" s="27">
         <f>COUNTIF(U4:U33,"bajo")</f>
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="AA7" s="27">
         <f>COUNTIF(U4:U33,"medio")</f>
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="AB7" s="27">
         <f>COUNTIF(U4:U33,"alto")</f>
@@ -24837,7 +24889,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>5</v>
       </c>
@@ -24926,18 +24978,18 @@
       </c>
       <c r="AA8" s="30">
         <f>COUNTIF(W4:W33,"medio")</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AB8" s="30">
         <f>COUNTIF(W4:W33,"alto")</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AC8" s="30">
         <f>SUM(Z8:AB8)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>6</v>
       </c>
@@ -24990,7 +25042,7 @@
       </c>
       <c r="P9" s="29" t="str">
         <f t="shared" si="7"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="Q9" s="26">
         <v>1</v>
@@ -25018,7 +25070,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>7</v>
       </c>
@@ -25037,7 +25089,7 @@
       </c>
       <c r="F10" s="27" t="str">
         <f t="shared" si="5"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="G10" s="26">
         <v>0</v>
@@ -25054,7 +25106,7 @@
       </c>
       <c r="K10" s="52" t="str">
         <f t="shared" si="6"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="L10" s="26">
         <v>0</v>
@@ -25099,7 +25151,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>8</v>
       </c>
@@ -25169,7 +25221,7 @@
       </c>
       <c r="U11" s="27" t="str">
         <f t="shared" si="8"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="V11" s="30">
         <f t="shared" si="4"/>
@@ -25180,7 +25232,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>9</v>
       </c>
@@ -25199,7 +25251,7 @@
       </c>
       <c r="F12" s="27" t="str">
         <f t="shared" si="5"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="G12" s="26">
         <v>0</v>
@@ -25261,7 +25313,7 @@
         <v>bajo</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>10</v>
       </c>
@@ -25280,7 +25332,7 @@
       </c>
       <c r="F13" s="27" t="str">
         <f t="shared" si="5"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="G13" s="26">
         <v>0</v>
@@ -25314,7 +25366,7 @@
       </c>
       <c r="P13" s="29" t="str">
         <f t="shared" si="7"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="Q13" s="26">
         <v>0</v>
@@ -25342,7 +25394,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>11</v>
       </c>
@@ -25395,7 +25447,7 @@
       </c>
       <c r="P14" s="29" t="str">
         <f t="shared" si="7"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="Q14" s="26">
         <v>0</v>
@@ -25423,7 +25475,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>12</v>
       </c>
@@ -25459,7 +25511,7 @@
       </c>
       <c r="K15" s="52" t="str">
         <f t="shared" si="6"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="L15" s="26">
         <v>1</v>
@@ -25493,7 +25545,7 @@
       </c>
       <c r="U15" s="27" t="str">
         <f t="shared" si="8"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="V15" s="30">
         <f t="shared" si="4"/>
@@ -25504,7 +25556,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>13</v>
       </c>
@@ -25523,7 +25575,7 @@
       </c>
       <c r="F16" s="27" t="str">
         <f t="shared" si="5"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="G16" s="26">
         <v>1</v>
@@ -25574,7 +25626,7 @@
       </c>
       <c r="U16" s="27" t="str">
         <f t="shared" si="8"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="V16" s="30">
         <f t="shared" si="4"/>
@@ -25585,7 +25637,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>14</v>
       </c>
@@ -25621,7 +25673,7 @@
       </c>
       <c r="K17" s="52" t="str">
         <f t="shared" si="6"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="L17" s="26">
         <v>1</v>
@@ -25655,7 +25707,7 @@
       </c>
       <c r="U17" s="27" t="str">
         <f t="shared" si="8"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="V17" s="30">
         <f t="shared" si="4"/>
@@ -25666,7 +25718,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>15</v>
       </c>
@@ -25719,7 +25771,7 @@
       </c>
       <c r="P18" s="29" t="str">
         <f t="shared" si="7"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="Q18" s="26">
         <v>1</v>
@@ -25736,7 +25788,7 @@
       </c>
       <c r="U18" s="27" t="str">
         <f t="shared" si="8"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="V18" s="30">
         <f t="shared" si="4"/>
@@ -25747,7 +25799,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
         <v>16</v>
       </c>
@@ -25817,7 +25869,7 @@
       </c>
       <c r="U19" s="27" t="str">
         <f t="shared" si="8"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="V19" s="30">
         <f t="shared" si="4"/>
@@ -25828,7 +25880,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>17</v>
       </c>
@@ -25847,7 +25899,7 @@
       </c>
       <c r="F20" s="27" t="str">
         <f t="shared" si="5"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="G20" s="26">
         <v>1</v>
@@ -25881,7 +25933,7 @@
       </c>
       <c r="P20" s="29" t="str">
         <f t="shared" si="7"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="Q20" s="26">
         <v>0</v>
@@ -25898,7 +25950,7 @@
       </c>
       <c r="U20" s="27" t="str">
         <f t="shared" si="8"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="V20" s="30">
         <f t="shared" si="4"/>
@@ -25909,7 +25961,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
         <v>18</v>
       </c>
@@ -25928,7 +25980,7 @@
       </c>
       <c r="F21" s="27" t="str">
         <f t="shared" si="5"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="G21" s="26">
         <v>1</v>
@@ -25962,7 +26014,7 @@
       </c>
       <c r="P21" s="29" t="str">
         <f t="shared" si="7"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="Q21" s="26">
         <v>0</v>
@@ -25990,7 +26042,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>19</v>
       </c>
@@ -26071,7 +26123,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <v>20</v>
       </c>
@@ -26107,7 +26159,7 @@
       </c>
       <c r="K23" s="52" t="str">
         <f t="shared" si="6"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="L23" s="26">
         <v>0</v>
@@ -26124,7 +26176,7 @@
       </c>
       <c r="P23" s="29" t="str">
         <f t="shared" si="7"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="Q23" s="26">
         <v>1</v>
@@ -26152,7 +26204,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <v>21</v>
       </c>
@@ -26188,7 +26240,7 @@
       </c>
       <c r="K24" s="52" t="str">
         <f t="shared" si="6"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="L24" s="26">
         <v>0</v>
@@ -26205,7 +26257,7 @@
       </c>
       <c r="P24" s="29" t="str">
         <f t="shared" si="7"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="Q24" s="26">
         <v>1</v>
@@ -26233,7 +26285,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <v>22</v>
       </c>
@@ -26252,7 +26304,7 @@
       </c>
       <c r="F25" s="27" t="str">
         <f t="shared" si="5"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="G25" s="26">
         <v>0</v>
@@ -26269,7 +26321,7 @@
       </c>
       <c r="K25" s="52" t="str">
         <f t="shared" si="6"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="L25" s="26">
         <v>0</v>
@@ -26286,7 +26338,7 @@
       </c>
       <c r="P25" s="29" t="str">
         <f t="shared" si="7"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="Q25" s="26">
         <v>1</v>
@@ -26314,7 +26366,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
         <v>23</v>
       </c>
@@ -26367,7 +26419,7 @@
       </c>
       <c r="P26" s="29" t="str">
         <f t="shared" si="7"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="Q26" s="26">
         <v>0</v>
@@ -26384,7 +26436,7 @@
       </c>
       <c r="U26" s="27" t="str">
         <f t="shared" si="8"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="V26" s="30">
         <f t="shared" si="4"/>
@@ -26395,7 +26447,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="25">
         <v>24</v>
       </c>
@@ -26414,7 +26466,7 @@
       </c>
       <c r="F27" s="27" t="str">
         <f t="shared" si="5"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="G27" s="26">
         <v>0</v>
@@ -26476,7 +26528,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
         <v>25</v>
       </c>
@@ -26546,7 +26598,7 @@
       </c>
       <c r="U28" s="27" t="str">
         <f t="shared" si="8"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="V28" s="30">
         <f t="shared" si="4"/>
@@ -26557,7 +26609,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="25">
         <v>26</v>
       </c>
@@ -26576,7 +26628,7 @@
       </c>
       <c r="F29" s="27" t="str">
         <f t="shared" si="5"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="G29" s="26">
         <v>1</v>
@@ -26610,7 +26662,7 @@
       </c>
       <c r="P29" s="29" t="str">
         <f t="shared" si="7"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="Q29" s="26">
         <v>1</v>
@@ -26627,7 +26679,7 @@
       </c>
       <c r="U29" s="27" t="str">
         <f t="shared" si="8"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="V29" s="30">
         <f t="shared" si="4"/>
@@ -26638,7 +26690,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="25">
         <v>27</v>
       </c>
@@ -26708,7 +26760,7 @@
       </c>
       <c r="U30" s="27" t="str">
         <f t="shared" si="8"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="V30" s="30">
         <f t="shared" si="4"/>
@@ -26716,10 +26768,10 @@
       </c>
       <c r="W30" s="30" t="str">
         <f t="shared" si="9"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="25">
         <v>28</v>
       </c>
@@ -26789,7 +26841,7 @@
       </c>
       <c r="U31" s="27" t="str">
         <f t="shared" si="8"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="V31" s="30">
         <f t="shared" si="4"/>
@@ -26797,10 +26849,10 @@
       </c>
       <c r="W31" s="30" t="str">
         <f t="shared" si="9"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="25">
         <v>29</v>
       </c>
@@ -26819,7 +26871,7 @@
       </c>
       <c r="F32" s="27" t="str">
         <f t="shared" si="5"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="G32" s="26">
         <v>1</v>
@@ -26881,7 +26933,7 @@
         <v>bajo</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="25">
         <v>30</v>
       </c>
@@ -26900,7 +26952,7 @@
       </c>
       <c r="F33" s="27" t="str">
         <f t="shared" si="5"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="G33" s="26">
         <v>1</v>
@@ -26951,7 +27003,7 @@
       </c>
       <c r="U33" s="27" t="str">
         <f t="shared" si="8"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="V33" s="30">
         <f t="shared" si="4"/>
@@ -26962,7 +27014,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
         <v>3</v>
       </c>
@@ -26978,8 +27030,11 @@
         <f>SUM(D4:D33)</f>
         <v>19</v>
       </c>
-      <c r="E34" s="57"/>
-      <c r="F34" s="59"/>
+      <c r="E34" s="32">
+        <f>SUM(E4:E33)</f>
+        <v>50</v>
+      </c>
+      <c r="F34" s="76"/>
       <c r="G34" s="33">
         <f t="shared" ref="G34:I34" si="11">SUM(G4:G33)</f>
         <v>16</v>
@@ -26992,8 +27047,11 @@
         <f t="shared" si="11"/>
         <v>17</v>
       </c>
-      <c r="J34" s="53"/>
-      <c r="K34" s="54"/>
+      <c r="J34" s="33">
+        <f>SUM(J4:J33)</f>
+        <v>51</v>
+      </c>
+      <c r="K34" s="77"/>
       <c r="L34" s="34">
         <f>SUM(L4:L33)</f>
         <v>10</v>
@@ -27006,8 +27064,11 @@
         <f>SUM(N4:N33)</f>
         <v>15</v>
       </c>
-      <c r="O34" s="53"/>
-      <c r="P34" s="54"/>
+      <c r="O34" s="34">
+        <f>SUM(O4:O33)</f>
+        <v>40</v>
+      </c>
+      <c r="P34" s="77"/>
       <c r="Q34" s="32">
         <f>SUM(Q4:Q33)</f>
         <v>14</v>
@@ -27020,163 +27081,181 @@
         <f>SUM(S4:S33)</f>
         <v>16</v>
       </c>
-      <c r="T34" s="57"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="58"/>
-      <c r="W34" s="59"/>
+      <c r="T34" s="32">
+        <f>SUM(T4:T33)</f>
+        <v>41</v>
+      </c>
+      <c r="U34" s="76"/>
+      <c r="V34" s="53">
+        <f t="shared" si="4"/>
+        <v>182</v>
+      </c>
+      <c r="W34" s="76"/>
     </row>
-    <row r="35" spans="1:23" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="45" t="s">
         <v>86</v>
       </c>
       <c r="B35" s="41">
-        <f>B34/$A$33</f>
+        <f>B34/30</f>
         <v>0.6</v>
       </c>
       <c r="C35" s="41">
-        <f t="shared" ref="C35:D35" si="14">C34/$A$33</f>
+        <f>C34/30</f>
         <v>0.43333333333333335</v>
       </c>
       <c r="D35" s="41">
-        <f t="shared" si="14"/>
+        <f>D34/30</f>
         <v>0.6333333333333333</v>
       </c>
-      <c r="E35" s="60"/>
-      <c r="F35" s="62"/>
+      <c r="E35" s="41">
+        <f>E34/(30*3)</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F35" s="76"/>
       <c r="G35" s="43">
-        <f t="shared" ref="G35:I35" si="15">G34/$A$33</f>
+        <f>G34/30</f>
         <v>0.53333333333333333</v>
       </c>
       <c r="H35" s="43">
-        <f t="shared" si="15"/>
+        <f>H34/30</f>
         <v>0.6</v>
       </c>
       <c r="I35" s="43">
-        <f t="shared" si="15"/>
+        <f>I34/30</f>
         <v>0.56666666666666665</v>
       </c>
-      <c r="J35" s="55"/>
-      <c r="K35" s="56"/>
+      <c r="J35" s="43">
+        <f>J34/(30*3)</f>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="K35" s="77"/>
       <c r="L35" s="44">
-        <f t="shared" ref="L35:N35" si="16">L34/$A$33</f>
+        <f>L34/30</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="M35" s="44">
-        <f t="shared" si="16"/>
+        <f>M34/30</f>
         <v>0.5</v>
       </c>
       <c r="N35" s="44">
-        <f t="shared" si="16"/>
+        <f>N34/30</f>
         <v>0.5</v>
       </c>
-      <c r="O35" s="55"/>
-      <c r="P35" s="56"/>
+      <c r="O35" s="44">
+        <f>O34/(30*3)</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="P35" s="77"/>
       <c r="Q35" s="41">
-        <f t="shared" ref="Q35:S35" si="17">Q34/$A$33</f>
+        <f>Q34/30</f>
         <v>0.46666666666666667</v>
       </c>
       <c r="R35" s="41">
-        <f t="shared" si="17"/>
+        <f>R34/30</f>
         <v>0.36666666666666664</v>
       </c>
       <c r="S35" s="41">
-        <f t="shared" si="17"/>
+        <f>S34/30</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="T35" s="60"/>
-      <c r="U35" s="61"/>
-      <c r="V35" s="61"/>
-      <c r="W35" s="62"/>
+      <c r="T35" s="41">
+        <f>T34/(30*3)</f>
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="U35" s="76"/>
+      <c r="V35" s="78">
+        <f>V34/(30*12)</f>
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="W35" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="O34:P35"/>
-    <mergeCell ref="T34:W35"/>
+  <mergeCells count="6">
+    <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="J34:K35"/>
     <mergeCell ref="L1:P1"/>
     <mergeCell ref="V1:V3"/>
     <mergeCell ref="W1:W3"/>
     <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4:T33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.875" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.875" style="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="11.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="11.875" style="21" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="12.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="12.875" style="21" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.625" style="21" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10" style="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.83203125" style="21"/>
+    <col min="24" max="24" width="10.875" style="21"/>
     <col min="25" max="25" width="13.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.875" style="21" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="6.5" style="21" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="4.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="10.83203125" style="21"/>
+    <col min="29" max="29" width="5.375" style="21" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="10.875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="20"/>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="63" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="64" t="s">
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="66" t="s">
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="W1" s="65" t="s">
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="61" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="46" t="s">
         <v>47</v>
@@ -27222,10 +27301,10 @@
       </c>
       <c r="T2" s="47"/>
       <c r="U2" s="47"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
@@ -27289,8 +27368,8 @@
       <c r="U3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
       <c r="Y3" s="20" t="s">
         <v>11</v>
       </c>
@@ -27307,7 +27386,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>1</v>
       </c>
@@ -27325,7 +27404,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="27" t="str">
-        <f>IF(AND(E4&gt;=0,E4&lt;=1),"bajo",IF(AND(E4&gt;1,E4&lt;=2),"medio",IF(AND(E4&gt;2,E4&lt;=3),"alto")))</f>
+        <f>IF(AND(E4&gt;=0,E4&lt;1),"bajo",IF(AND(E4&gt;=1,E4&lt;=2),"medio",IF(AND(E4&gt;2,E4&lt;=3),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="G4" s="26">
@@ -27342,7 +27421,7 @@
         <v>3</v>
       </c>
       <c r="K4" s="52" t="str">
-        <f>IF(AND(J4&gt;=0,J4&lt;=1),"bajo",IF(AND(J4&gt;1,J4&lt;=2),"medio",IF(AND(J4&gt;2,J4&lt;=3),"alto")))</f>
+        <f>IF(AND(J4&gt;=0,J4&lt;1),"bajo",IF(AND(J4&gt;=1,J4&lt;=2),"medio",IF(AND(J4&gt;2,J4&lt;=3),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="L4" s="26">
@@ -27359,7 +27438,7 @@
         <v>3</v>
       </c>
       <c r="P4" s="29" t="str">
-        <f>IF(AND(O4&gt;=0,O4&lt;=1),"bajo",IF(AND(O4&gt;1,O4&lt;=2),"medio",IF(AND(O4&gt;2,O4&lt;=3),"alto")))</f>
+        <f>IF(AND(O4&gt;=0,O4&lt;1),"bajo",IF(AND(O4&gt;=1,O4&lt;=2),"medio",IF(AND(O4&gt;2,O4&lt;=3),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="Q4" s="26">
@@ -27376,15 +27455,15 @@
         <v>3</v>
       </c>
       <c r="U4" s="27" t="str">
-        <f>IF(AND(T4&gt;=0,T4&lt;=1),"bajo",IF(AND(T4&gt;1,T4&lt;=2),"medio",IF(AND(T4&gt;2,T4&lt;=3),"alto")))</f>
+        <f>IF(AND(T4&gt;=0,T4&lt;1),"bajo",IF(AND(T4&gt;=1,T4&lt;=2),"medio",IF(AND(T4&gt;2,T4&lt;=3),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="V4" s="30">
-        <f t="shared" ref="V4:V33" si="4">E4+J4+O4+T4</f>
+        <f t="shared" ref="V4:V34" si="4">E4+J4+O4+T4</f>
         <v>12</v>
       </c>
       <c r="W4" s="30" t="str">
-        <f>IF(AND(V4&gt;=0,V4&lt;4),"bajo",IF(AND(V4&gt;=4,V4&lt;8),"medio",IF(AND(V4&gt;=8,V4&lt;=12),"alto")))</f>
+        <f>IF(AND(V4&gt;=0,V4&lt;4),"bajo",IF(AND(V4&gt;=4,V4&lt;=8),"medio",IF(AND(V4&gt;8,V4&lt;=12),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="Y4" s="27" t="s">
@@ -27392,11 +27471,11 @@
       </c>
       <c r="Z4" s="27">
         <f>COUNTIF(F4:F33,"bajo")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="27">
         <f>COUNTIF(F4:F33,"medio")</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AB4" s="27">
         <f>COUNTIF(F4:F33,"alto")</f>
@@ -27407,7 +27486,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>2</v>
       </c>
@@ -27425,7 +27504,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="27" t="str">
-        <f t="shared" ref="F5:F33" si="5">IF(AND(E5&gt;=0,E5&lt;=1),"bajo",IF(AND(E5&gt;1,E5&lt;=2),"medio",IF(AND(E5&gt;2,E5&lt;=3),"alto")))</f>
+        <f t="shared" ref="F5:F33" si="5">IF(AND(E5&gt;=0,E5&lt;1),"bajo",IF(AND(E5&gt;=1,E5&lt;=2),"medio",IF(AND(E5&gt;2,E5&lt;=3),"alto")))</f>
         <v>medio</v>
       </c>
       <c r="G5" s="26">
@@ -27442,7 +27521,7 @@
         <v>2</v>
       </c>
       <c r="K5" s="52" t="str">
-        <f t="shared" ref="K5:K33" si="6">IF(AND(J5&gt;=0,J5&lt;=1),"bajo",IF(AND(J5&gt;1,J5&lt;=2),"medio",IF(AND(J5&gt;2,J5&lt;=3),"alto")))</f>
+        <f t="shared" ref="K5:K33" si="6">IF(AND(J5&gt;=0,J5&lt;1),"bajo",IF(AND(J5&gt;=1,J5&lt;=2),"medio",IF(AND(J5&gt;2,J5&lt;=3),"alto")))</f>
         <v>medio</v>
       </c>
       <c r="L5" s="26">
@@ -27459,7 +27538,7 @@
         <v>3</v>
       </c>
       <c r="P5" s="29" t="str">
-        <f t="shared" ref="P5:P33" si="7">IF(AND(O5&gt;=0,O5&lt;=1),"bajo",IF(AND(O5&gt;1,O5&lt;=2),"medio",IF(AND(O5&gt;2,O5&lt;=3),"alto")))</f>
+        <f t="shared" ref="P5:P33" si="7">IF(AND(O5&gt;=0,O5&lt;1),"bajo",IF(AND(O5&gt;=1,O5&lt;=2),"medio",IF(AND(O5&gt;2,O5&lt;=3),"alto")))</f>
         <v>alto</v>
       </c>
       <c r="Q5" s="26">
@@ -27476,27 +27555,27 @@
         <v>1</v>
       </c>
       <c r="U5" s="27" t="str">
-        <f t="shared" ref="U5:U33" si="8">IF(AND(T5&gt;=0,T5&lt;=1),"bajo",IF(AND(T5&gt;1,T5&lt;=2),"medio",IF(AND(T5&gt;2,T5&lt;=3),"alto")))</f>
-        <v>bajo</v>
+        <f t="shared" ref="U5:U33" si="8">IF(AND(T5&gt;=0,T5&lt;1),"bajo",IF(AND(T5&gt;=1,T5&lt;=2),"medio",IF(AND(T5&gt;2,T5&lt;=3),"alto")))</f>
+        <v>medio</v>
       </c>
       <c r="V5" s="30">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="W5" s="30" t="str">
-        <f t="shared" ref="W5:W33" si="9">IF(AND(V5&gt;=0,V5&lt;4),"bajo",IF(AND(V5&gt;=4,V5&lt;8),"medio",IF(AND(V5&gt;=8,V5&lt;=12),"alto")))</f>
-        <v>alto</v>
+        <f t="shared" ref="W5:W33" si="9">IF(AND(V5&gt;=0,V5&lt;4),"bajo",IF(AND(V5&gt;=4,V5&lt;=8),"medio",IF(AND(V5&gt;8,V5&lt;=12),"alto")))</f>
+        <v>medio</v>
       </c>
       <c r="Y5" s="28" t="s">
         <v>9</v>
       </c>
       <c r="Z5" s="28">
         <f>COUNTIF(K4:K33,"bajo")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="28">
         <f>COUNTIF(K4:K33,"medio")</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AB5" s="28">
         <f>COUNTIF(K4:K33,"alto")</f>
@@ -27507,7 +27586,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>3</v>
       </c>
@@ -27592,11 +27671,11 @@
       </c>
       <c r="Z6" s="29">
         <f>COUNTIF(P4:P33,"bajo")</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="29">
         <f>COUNTIF(P4:P33,"medio")</f>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AB6" s="29">
         <f>COUNTIF(P4:P33,"alto")</f>
@@ -27607,7 +27686,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>4</v>
       </c>
@@ -27692,11 +27771,11 @@
       </c>
       <c r="Z7" s="27">
         <f>COUNTIF(U4:U33,"bajo")</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="27">
         <f>COUNTIF(U4:U33,"medio")</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AB7" s="27">
         <f>COUNTIF(U4:U33,"alto")</f>
@@ -27707,7 +27786,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>5</v>
       </c>
@@ -27796,18 +27875,18 @@
       </c>
       <c r="AA8" s="30">
         <f>COUNTIF(W4:W33,"medio")</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AB8" s="30">
         <f>COUNTIF(W4:W33,"alto")</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AC8" s="30">
         <f>SUM(Z8:AB8)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>6</v>
       </c>
@@ -27888,7 +27967,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>7</v>
       </c>
@@ -27941,7 +28020,7 @@
       </c>
       <c r="P10" s="29" t="str">
         <f t="shared" si="7"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="Q10" s="26">
         <v>0</v>
@@ -27969,7 +28048,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>8</v>
       </c>
@@ -28050,7 +28129,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>9</v>
       </c>
@@ -28131,7 +28210,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>10</v>
       </c>
@@ -28150,7 +28229,7 @@
       </c>
       <c r="F13" s="27" t="str">
         <f t="shared" si="5"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="G13" s="26">
         <v>0</v>
@@ -28184,7 +28263,7 @@
       </c>
       <c r="P13" s="29" t="str">
         <f t="shared" si="7"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="Q13" s="26">
         <v>1</v>
@@ -28212,7 +28291,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>11</v>
       </c>
@@ -28293,7 +28372,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>12</v>
       </c>
@@ -28363,7 +28442,7 @@
       </c>
       <c r="U15" s="27" t="str">
         <f t="shared" si="8"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="V15" s="30">
         <f t="shared" si="4"/>
@@ -28374,7 +28453,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>13</v>
       </c>
@@ -28444,7 +28523,7 @@
       </c>
       <c r="U16" s="27" t="str">
         <f t="shared" si="8"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="V16" s="30">
         <f t="shared" si="4"/>
@@ -28455,7 +28534,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>14</v>
       </c>
@@ -28525,7 +28604,7 @@
       </c>
       <c r="U17" s="27" t="str">
         <f t="shared" si="8"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="V17" s="30">
         <f t="shared" si="4"/>
@@ -28536,7 +28615,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>15</v>
       </c>
@@ -28589,7 +28668,7 @@
       </c>
       <c r="P18" s="29" t="str">
         <f t="shared" si="7"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="Q18" s="26">
         <v>1</v>
@@ -28617,7 +28696,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
         <v>16</v>
       </c>
@@ -28670,7 +28749,7 @@
       </c>
       <c r="P19" s="29" t="str">
         <f t="shared" si="7"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="Q19" s="26">
         <v>1</v>
@@ -28698,7 +28777,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>17</v>
       </c>
@@ -28779,7 +28858,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
         <v>18</v>
       </c>
@@ -28849,7 +28928,7 @@
       </c>
       <c r="U21" s="27" t="str">
         <f t="shared" si="8"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="V21" s="30">
         <f t="shared" si="4"/>
@@ -28857,10 +28936,10 @@
       </c>
       <c r="W21" s="30" t="str">
         <f t="shared" si="9"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>19</v>
       </c>
@@ -28938,10 +29017,10 @@
       </c>
       <c r="W22" s="30" t="str">
         <f t="shared" si="9"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <v>20</v>
       </c>
@@ -28994,7 +29073,7 @@
       </c>
       <c r="P23" s="29" t="str">
         <f t="shared" si="7"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="Q23" s="26">
         <v>1</v>
@@ -29022,7 +29101,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <v>21</v>
       </c>
@@ -29058,7 +29137,7 @@
       </c>
       <c r="K24" s="52" t="str">
         <f t="shared" si="6"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="L24" s="26">
         <v>1</v>
@@ -29103,7 +29182,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <v>22</v>
       </c>
@@ -29156,7 +29235,7 @@
       </c>
       <c r="P25" s="29" t="str">
         <f t="shared" si="7"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="Q25" s="26">
         <v>1</v>
@@ -29184,7 +29263,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
         <v>23</v>
       </c>
@@ -29220,7 +29299,7 @@
       </c>
       <c r="K26" s="52" t="str">
         <f t="shared" si="6"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="L26" s="26">
         <v>0</v>
@@ -29254,7 +29333,7 @@
       </c>
       <c r="U26" s="27" t="str">
         <f t="shared" si="8"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="V26" s="30">
         <f t="shared" si="4"/>
@@ -29265,7 +29344,7 @@
         <v>medio</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="25">
         <v>24</v>
       </c>
@@ -29346,7 +29425,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
         <v>25</v>
       </c>
@@ -29427,7 +29506,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="25">
         <v>26</v>
       </c>
@@ -29508,7 +29587,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="25">
         <v>27</v>
       </c>
@@ -29589,7 +29668,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="25">
         <v>28</v>
       </c>
@@ -29670,7 +29749,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="25">
         <v>29</v>
       </c>
@@ -29751,7 +29830,7 @@
         <v>alto</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="25">
         <v>30</v>
       </c>
@@ -29770,7 +29849,7 @@
       </c>
       <c r="F33" s="27" t="str">
         <f t="shared" si="5"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="G33" s="26">
         <v>1</v>
@@ -29804,7 +29883,7 @@
       </c>
       <c r="P33" s="29" t="str">
         <f t="shared" si="7"/>
-        <v>bajo</v>
+        <v>medio</v>
       </c>
       <c r="Q33" s="26">
         <v>1</v>
@@ -29829,10 +29908,10 @@
       </c>
       <c r="W33" s="30" t="str">
         <f t="shared" si="9"/>
-        <v>alto</v>
+        <v>medio</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
         <v>3</v>
       </c>
@@ -29848,8 +29927,11 @@
         <f>SUM(D4:D33)</f>
         <v>24</v>
       </c>
-      <c r="E34" s="57"/>
-      <c r="F34" s="59"/>
+      <c r="E34" s="32">
+        <f>SUM(E4:E33)</f>
+        <v>71</v>
+      </c>
+      <c r="F34" s="76"/>
       <c r="G34" s="33">
         <f t="shared" ref="G34:I34" si="11">SUM(G4:G33)</f>
         <v>23</v>
@@ -29862,8 +29944,11 @@
         <f t="shared" si="11"/>
         <v>26</v>
       </c>
-      <c r="J34" s="53"/>
-      <c r="K34" s="54"/>
+      <c r="J34" s="33">
+        <f>SUM(J4:J33)</f>
+        <v>72</v>
+      </c>
+      <c r="K34" s="77"/>
       <c r="L34" s="34">
         <f>SUM(L4:L33)</f>
         <v>18</v>
@@ -29876,8 +29961,11 @@
         <f>SUM(N4:N33)</f>
         <v>21</v>
       </c>
-      <c r="O34" s="53"/>
-      <c r="P34" s="54"/>
+      <c r="O34" s="34">
+        <f>SUM(O4:O33)</f>
+        <v>62</v>
+      </c>
+      <c r="P34" s="77"/>
       <c r="Q34" s="32">
         <f>SUM(Q4:Q33)</f>
         <v>19</v>
@@ -29890,82 +29978,99 @@
         <f>SUM(S4:S33)</f>
         <v>22</v>
       </c>
-      <c r="T34" s="57"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="58"/>
-      <c r="W34" s="59"/>
+      <c r="T34" s="32">
+        <f>SUM(T4:T33)</f>
+        <v>63</v>
+      </c>
+      <c r="U34" s="76"/>
+      <c r="V34" s="53">
+        <f t="shared" si="4"/>
+        <v>268</v>
+      </c>
+      <c r="W34" s="76"/>
     </row>
-    <row r="35" spans="1:23" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="45" t="s">
         <v>86</v>
       </c>
       <c r="B35" s="41">
-        <f>B34/$A$33</f>
+        <f>B34/30</f>
         <v>0.8</v>
       </c>
       <c r="C35" s="41">
-        <f t="shared" ref="C35:D35" si="14">C34/$A$33</f>
+        <f>C34/30</f>
         <v>0.76666666666666672</v>
       </c>
       <c r="D35" s="41">
-        <f t="shared" si="14"/>
+        <f>D34/30</f>
         <v>0.8</v>
       </c>
-      <c r="E35" s="60"/>
-      <c r="F35" s="62"/>
+      <c r="E35" s="41">
+        <f>E34/(30*3)</f>
+        <v>0.78888888888888886</v>
+      </c>
+      <c r="F35" s="76"/>
       <c r="G35" s="43">
-        <f t="shared" ref="G35:I35" si="15">G34/$A$33</f>
+        <f>G34/30</f>
         <v>0.76666666666666672</v>
       </c>
       <c r="H35" s="43">
-        <f t="shared" si="15"/>
+        <f>H34/30</f>
         <v>0.76666666666666672</v>
       </c>
       <c r="I35" s="43">
-        <f t="shared" si="15"/>
+        <f>I34/30</f>
         <v>0.8666666666666667</v>
       </c>
-      <c r="J35" s="55"/>
-      <c r="K35" s="56"/>
+      <c r="J35" s="43">
+        <f>J34/(30*3)</f>
+        <v>0.8</v>
+      </c>
+      <c r="K35" s="77"/>
       <c r="L35" s="44">
-        <f t="shared" ref="L35:N35" si="16">L34/$A$33</f>
+        <f>L34/30</f>
         <v>0.6</v>
       </c>
       <c r="M35" s="44">
-        <f t="shared" si="16"/>
+        <f>M34/30</f>
         <v>0.76666666666666672</v>
       </c>
       <c r="N35" s="44">
-        <f t="shared" si="16"/>
+        <f>N34/30</f>
         <v>0.7</v>
       </c>
-      <c r="O35" s="55"/>
-      <c r="P35" s="56"/>
+      <c r="O35" s="44">
+        <f>O34/(30*3)</f>
+        <v>0.68888888888888888</v>
+      </c>
+      <c r="P35" s="77"/>
       <c r="Q35" s="41">
-        <f t="shared" ref="Q35:S35" si="17">Q34/$A$33</f>
+        <f>Q34/30</f>
         <v>0.6333333333333333</v>
       </c>
       <c r="R35" s="41">
-        <f t="shared" si="17"/>
+        <f>R34/30</f>
         <v>0.73333333333333328</v>
       </c>
       <c r="S35" s="41">
-        <f t="shared" si="17"/>
+        <f>S34/30</f>
         <v>0.73333333333333328</v>
       </c>
-      <c r="T35" s="60"/>
-      <c r="U35" s="61"/>
-      <c r="V35" s="61"/>
-      <c r="W35" s="62"/>
+      <c r="T35" s="41">
+        <f>T34/(30*3)</f>
+        <v>0.7</v>
+      </c>
+      <c r="U35" s="76"/>
+      <c r="V35" s="78">
+        <f>V34/(30*12)</f>
+        <v>0.74444444444444446</v>
+      </c>
+      <c r="W35" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="6">
     <mergeCell ref="V1:V3"/>
     <mergeCell ref="W1:W3"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="J34:K35"/>
-    <mergeCell ref="O34:P35"/>
-    <mergeCell ref="T34:W35"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="L1:P1"/>
@@ -29976,26 +30081,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="67" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="35"/>
       <c r="C3" s="35" t="s">
         <v>14</v>
@@ -30004,7 +30109,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
         <v>47</v>
       </c>
@@ -30017,7 +30122,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="35" t="s">
         <v>48</v>
       </c>
@@ -30030,7 +30135,7 @@
         <v>0.76666666666666672</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="35" t="s">
         <v>49</v>
       </c>
@@ -30043,14 +30148,14 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="68" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="70"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="36"/>
       <c r="C18" s="36" t="s">
         <v>14</v>
@@ -30059,7 +30164,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="37" t="s">
         <v>50</v>
       </c>
@@ -30072,7 +30177,7 @@
         <v>0.76666666666666672</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="37" t="s">
         <v>51</v>
       </c>
@@ -30085,7 +30190,7 @@
         <v>0.76666666666666672</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="37" t="s">
         <v>52</v>
       </c>
@@ -30098,14 +30203,14 @@
         <v>0.8666666666666667</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="71" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="72"/>
-      <c r="D34" s="73"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="69"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="38"/>
       <c r="C35" s="38" t="s">
         <v>14</v>
@@ -30114,7 +30219,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="39" t="s">
         <v>53</v>
       </c>
@@ -30127,7 +30232,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="39" t="s">
         <v>54</v>
       </c>
@@ -30140,7 +30245,7 @@
         <v>0.76666666666666672</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="39" t="s">
         <v>55</v>
       </c>
@@ -30153,14 +30258,14 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="74" t="s">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="C53" s="75"/>
-      <c r="D53" s="76"/>
+      <c r="C53" s="71"/>
+      <c r="D53" s="72"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="40"/>
       <c r="C54" s="40" t="s">
         <v>14</v>
@@ -30169,7 +30274,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="37" t="s">
         <v>83</v>
       </c>
@@ -30182,7 +30287,7 @@
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="37" t="s">
         <v>84</v>
       </c>
@@ -30195,7 +30300,7 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="37" t="s">
         <v>85</v>
       </c>
@@ -30221,30 +30326,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Y51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A2:Y68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
     <col min="22" max="22" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="77" t="s">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="75"/>
       <c r="V2" s="1"/>
       <c r="W2" s="4" t="s">
         <v>5</v>
@@ -30256,7 +30362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -30281,96 +30387,96 @@
       </c>
       <c r="W3" s="10">
         <f>'Comparación Dimensiones'!$B$4</f>
-        <v>0.46666666666666667</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="X3" s="10">
         <f>'Comparación Dimensiones'!$B$5</f>
-        <v>0.33333333333333331</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="Y3" s="10">
         <f>'Comparación Dimensiones'!$B$6</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="18">
         <f>C4/$C$7</f>
-        <v>0.46666666666666667</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="C4" s="1">
         <f>Pretest!Z4</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="18">
         <f>G4/$G$7</f>
-        <v>0.1</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="G4" s="1">
         <f>Postest!Z4</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V4" s="2" t="s">
         <v>72</v>
       </c>
       <c r="W4" s="10">
         <f>'Comparación Dimensiones'!$F$4</f>
-        <v>0.1</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="X4" s="10">
         <f>'Comparación Dimensiones'!$F$5</f>
-        <v>0.4</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="Y4" s="10">
         <f>'Comparación Dimensiones'!$F$6</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="18">
         <f>C5/$C$7</f>
-        <v>0.33333333333333331</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="C5" s="1">
         <f>Pretest!AA4</f>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="18">
         <f>G5/$G$7</f>
-        <v>0.4</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="G5" s="1">
         <f>Postest!AA4</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="V5" s="2" t="s">
         <v>73</v>
       </c>
       <c r="W5" s="10">
         <f>'Comparación Dimensiones'!$B$15</f>
-        <v>0.33333333333333331</v>
+        <v>0.1</v>
       </c>
       <c r="X5" s="10">
         <f>'Comparación Dimensiones'!$B$16</f>
-        <v>0.53333333333333333</v>
+        <v>0.76666666666666672</v>
       </c>
       <c r="Y5" s="10">
         <f>'Comparación Dimensiones'!$B$17</f>
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -30398,18 +30504,18 @@
       </c>
       <c r="W6" s="10">
         <f>'Comparación Dimensiones'!$F$15</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0</v>
       </c>
       <c r="X6" s="10">
         <f>'Comparación Dimensiones'!$F$16</f>
-        <v>0.46666666666666667</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="Y6" s="10">
         <f>'Comparación Dimensiones'!$F$17</f>
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -30437,70 +30543,70 @@
       </c>
       <c r="W7" s="10">
         <f>'Comparación Dimensiones'!$B$26</f>
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="X7" s="10">
         <f>'Comparación Dimensiones'!$B$27</f>
-        <v>0.26666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Y7" s="10">
         <f>'Comparación Dimensiones'!$B$28</f>
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="V8" s="2" t="s">
         <v>76</v>
       </c>
       <c r="W8" s="10">
         <f>'Comparación Dimensiones'!$F$26</f>
-        <v>0.23333333333333334</v>
+        <v>0</v>
       </c>
       <c r="X8" s="10">
         <f>'Comparación Dimensiones'!$F$27</f>
-        <v>0.46666666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="Y8" s="10">
         <f>'Comparación Dimensiones'!$F$28</f>
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="V9" s="2" t="s">
         <v>77</v>
       </c>
       <c r="W9" s="10">
         <f>'Comparación Dimensiones'!$B$37</f>
-        <v>0.6</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="X9" s="10">
         <f>'Comparación Dimensiones'!$B$38</f>
-        <v>0.3</v>
+        <v>0.76666666666666672</v>
       </c>
       <c r="Y9" s="10">
         <f>'Comparación Dimensiones'!$B$39</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F10" s="19"/>
       <c r="V10" s="2" t="s">
         <v>78</v>
       </c>
       <c r="W10" s="10">
         <f>'Comparación Dimensiones'!$F$37</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="X10" s="10">
         <f>'Comparación Dimensiones'!$F$38</f>
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="Y10" s="10">
         <f>'Comparación Dimensiones'!$F$39</f>
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="V11" s="5" t="s">
         <v>79</v>
       </c>
@@ -30510,14 +30616,14 @@
       </c>
       <c r="X11" s="10">
         <f>B49</f>
-        <v>0.73333333333333328</v>
+        <v>0.8</v>
       </c>
       <c r="Y11" s="10">
         <f>B50</f>
-        <v>0.2</v>
+        <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="V12" s="5" t="s">
         <v>80</v>
       </c>
@@ -30527,23 +30633,23 @@
       </c>
       <c r="X12" s="10">
         <f>F49</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Y12" s="10">
         <f>F50</f>
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13" s="77" t="s">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="79"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="75"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -30572,22 +30678,22 @@
       </c>
       <c r="B15" s="18">
         <f>C15/$C$18</f>
-        <v>0.33333333333333331</v>
+        <v>0.1</v>
       </c>
       <c r="C15" s="1">
         <f>Pretest!$Z$5</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="18">
         <f>G15/$G$18</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
         <f>Postest!Z5</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -30596,22 +30702,22 @@
       </c>
       <c r="B16" s="18">
         <f>C16/$C$18</f>
-        <v>0.53333333333333333</v>
+        <v>0.76666666666666672</v>
       </c>
       <c r="C16" s="1">
         <f>Pretest!$AA$5</f>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="18">
         <f>G16/$G$18</f>
-        <v>0.46666666666666667</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G16" s="1">
         <f>Postest!AA5</f>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -30662,16 +30768,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="77" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="79"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="75"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -30700,22 +30806,22 @@
       </c>
       <c r="B26" s="9">
         <f>C26/$C$29</f>
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="C26" s="1">
         <f>Pretest!$Z$6</f>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F26" s="18">
         <f>G26/$G$29</f>
-        <v>0.23333333333333334</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
         <f>Postest!Z6</f>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -30724,22 +30830,22 @@
       </c>
       <c r="B27" s="9">
         <f>C27/$C$29</f>
-        <v>0.26666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C27" s="1">
         <f>Pretest!$AA$6</f>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F27" s="18">
         <f>G27/$G$29</f>
-        <v>0.46666666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="G27" s="1">
         <f>Postest!AA6</f>
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -30790,16 +30896,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="77" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="79"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="75"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
@@ -30828,22 +30934,22 @@
       </c>
       <c r="B37" s="9">
         <f>C37/$C$29</f>
-        <v>0.6</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="C37" s="1">
         <f>Pretest!Z7</f>
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F37" s="18">
         <f>G37/$G$29</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G37" s="1">
         <f>Postest!Z7</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -30852,22 +30958,22 @@
       </c>
       <c r="B38" s="9">
         <f>C38/$C$29</f>
-        <v>0.3</v>
+        <v>0.76666666666666672</v>
       </c>
       <c r="C38" s="1">
         <f>Pretest!AA7</f>
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F38" s="18">
         <f>G38/$G$29</f>
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="G38" s="1">
         <f>Postest!AA7</f>
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -30900,7 +31006,7 @@
       </c>
       <c r="B40" s="10">
         <f>SUM(B37:B39)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="C40" s="1">
         <f>SUM(C37:C39)</f>
@@ -30918,18 +31024,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="77" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="78"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="78"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="79"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="75"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
         <v>15</v>
       </c>
@@ -30950,7 +31056,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
@@ -30974,55 +31080,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B49" s="9">
         <f>C49/$C$29</f>
-        <v>0.73333333333333328</v>
+        <v>0.8</v>
       </c>
       <c r="C49" s="1">
         <f>Pretest!AA8</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F49" s="18">
         <f>G49/$G$29</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G49" s="1">
         <f>Postest!AA8</f>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B50" s="9">
         <f>C50/$C$29</f>
-        <v>0.2</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="C50" s="1">
         <f>Pretest!AB8</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F50" s="18">
         <f>G50/$G$29</f>
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G50" s="1">
         <f>Postest!AB8</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>12</v>
       </c>
@@ -31044,6 +31150,124 @@
       <c r="G51" s="1">
         <f>SUM(G48:G50)</f>
         <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="54"/>
+      <c r="B55" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="57">
+        <f>Pretest!E35</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="C56" s="57">
+        <f>Postest!E35</f>
+        <v>0.78888888888888886</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" s="57">
+        <f>Pretest!J35</f>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="C57" s="57">
+        <f>Postest!J35</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="57">
+        <f>Pretest!O35</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C58" s="57">
+        <f>Postest!O35</f>
+        <v>0.68888888888888888</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" s="57">
+        <f>Pretest!T35</f>
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="C59" s="57">
+        <f>Postest!T35</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="58"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="58"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="58"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="58"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="58"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="58"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="58"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="58"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="58"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="58"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="58"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="58"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="58"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="58"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="54"/>
+      <c r="B67" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68" s="57">
+        <f>Pretest!V35</f>
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="C68" s="57">
+        <f>Postest!V35</f>
+        <v>0.74444444444444446</v>
       </c>
     </row>
   </sheetData>
@@ -31060,30 +31284,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" customWidth="1"/>
+    <col min="8" max="8" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.375" customWidth="1"/>
     <col min="11" max="11" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
@@ -31102,7 +31326,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -31119,7 +31343,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -31144,7 +31368,7 @@
         <v>14.833333333333334</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -31169,7 +31393,7 @@
         <v>0.68829847397188892</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -31194,7 +31418,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -31219,7 +31443,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -31244,7 +31468,7 @@
         <v>3.76996600490786</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -31269,7 +31493,7 @@
         <v>14.21264367816093</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -31294,7 +31518,7 @@
         <v>-0.17255398801539856</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -31319,7 +31543,7 @@
         <v>0.10151408213518009</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -31344,7 +31568,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -31369,7 +31593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -31394,7 +31618,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -31419,7 +31643,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -31444,7 +31668,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -31457,7 +31681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -31470,7 +31694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -31483,7 +31707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -31496,7 +31720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -31509,7 +31733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -31522,7 +31746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -31535,7 +31759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -31548,7 +31772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -31561,7 +31785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -31574,7 +31798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -31587,7 +31811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -31600,7 +31824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -31613,7 +31837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -31626,7 +31850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -31639,7 +31863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -31663,24 +31887,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
@@ -31694,7 +31918,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -31707,7 +31931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -31727,7 +31951,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -31749,7 +31973,7 @@
         <v>14.833333333333334</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -31771,7 +31995,7 @@
         <v>14.21264367816093</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -31793,7 +32017,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -31813,7 +32037,7 @@
       </c>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -31833,7 +32057,7 @@
       </c>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -31853,7 +32077,7 @@
       </c>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -31873,7 +32097,7 @@
       </c>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -31893,7 +32117,7 @@
       </c>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -31913,7 +32137,7 @@
       </c>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -31933,7 +32157,7 @@
       </c>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -31953,7 +32177,7 @@
       </c>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -31966,7 +32190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -31979,7 +32203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -31992,7 +32216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -32008,7 +32232,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -32025,7 +32249,7 @@
         <v>Hay un cambio significativo</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -32038,7 +32262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -32051,7 +32275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -32064,7 +32288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -32077,7 +32301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -32090,7 +32314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -32103,7 +32327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -32116,7 +32340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -32129,7 +32353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -32142,7 +32366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -32155,7 +32379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -32168,7 +32392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
